--- a/regions/5/dziritadi informacia/municipalitetebis, qalaqebis da soflebis raodenoba.xlsx
+++ b/regions/5/dziritadi informacia/municipalitetebis, qalaqebis da soflebis raodenoba.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\დასახლებების რაოდენობა 2022\რეგიონები\ქარ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26A44F-15EE-4671-9085-F2D87B07AF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="9795" windowHeight="11325" xr2:uid="{6F1D6D54-B01F-4891-BB7D-04075099E4C6}"/>
   </bookViews>
   <sheets>
     <sheet name="სამცხე-ჯავახეთი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>დასახელება</t>
-  </si>
-  <si>
-    <t>რაოდენობა</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>მუნიციპალიტეტი</t>
   </si>
@@ -31,23 +36,26 @@
     <t>დაბა</t>
   </si>
   <si>
-    <t>თემი</t>
-  </si>
-  <si>
-    <t>სათაო სოფელი</t>
-  </si>
-  <si>
-    <t>სულ სოფელი</t>
-  </si>
-  <si>
-    <t>სამცხე-ჯავახეთის  რეგიონში ქალაქებისა და სოფლების რაოდენობა</t>
+    <t>ადმინისტრაციული  ერთეული</t>
+  </si>
+  <si>
+    <t>სოფელი</t>
+  </si>
+  <si>
+    <t>სამცხე-ჯავახეთის რეგიონი</t>
+  </si>
+  <si>
+    <t>თვითმართველი ქალაქი</t>
+  </si>
+  <si>
+    <t>2024წ. 1 იანვრის მდგომარეობით, (ერთეული)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +66,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
@@ -96,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -105,69 +106,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -176,28 +137,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -220,44 +184,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -285,14 +249,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -320,6 +301,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,246 +329,236 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A188B4-BEC7-4DC3-9EE6-9038BFE955C2}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10">
-        <v>259</v>
+      <c r="B9" s="5">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>